--- a/Assets/LocalData/ChangeCalls.xlsx
+++ b/Assets/LocalData/ChangeCalls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Unity Projects\Interactive Stand\Assets\LocalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,23 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>21.07.2019-26.07.2019;28.07.2019</t>
-  </si>
-  <si>
-    <t>09:00-  10:00</t>
-  </si>
-  <si>
-    <t>30.07.2019</t>
-  </si>
-  <si>
-    <t>11:00-13:00</t>
-  </si>
-  <si>
-    <t>13:25-13:30</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,10 +341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK3"/>
+  <dimension ref="A1:AMK1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -370,29 +354,7 @@
     <col min="3" max="3" width="12.5546875" style="1" customWidth="1"/>
     <col min="4" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/Assets/LocalData/ChangeCalls.xlsx
+++ b/Assets/LocalData/ChangeCalls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Unity Projects\Interactive Stand\Assets\LocalData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>21.07.2019-26.07.2019;28.07.2019</t>
+  </si>
+  <si>
+    <t>09:00-  10:00</t>
+  </si>
+  <si>
+    <t>30.07.2019</t>
+  </si>
+  <si>
+    <t>11:00-13:00</t>
+  </si>
+  <si>
+    <t>13:25-13:30</t>
+  </si>
+  <si>
+    <t>13:00-13:25</t>
+  </si>
+  <si>
+    <t>18:00-19:00</t>
+  </si>
+  <si>
+    <t>20:00-21:00</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK1"/>
+  <dimension ref="A1:AMK5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:XFD1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -354,7 +379,42 @@
     <col min="3" max="3" width="12.5546875" style="1" customWidth="1"/>
     <col min="4" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/Assets/LocalData/ChangeCalls.xlsx
+++ b/Assets/LocalData/ChangeCalls.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>21.07.2019-26.07.2019;28.07.2019</t>
   </si>
@@ -32,9 +32,6 @@
     <t>09:00-  10:00</t>
   </si>
   <si>
-    <t>30.07.2019</t>
-  </si>
-  <si>
     <t>11:00-13:00</t>
   </si>
   <si>
@@ -48,6 +45,21 @@
   </si>
   <si>
     <t>20:00-21:00</t>
+  </si>
+  <si>
+    <t>20.07.2019</t>
+  </si>
+  <si>
+    <t>25.07.2019</t>
+  </si>
+  <si>
+    <t>23.07.2019</t>
+  </si>
+  <si>
+    <t>12:00-13:00</t>
+  </si>
+  <si>
+    <t>13:00-13:05</t>
   </si>
 </sst>
 </file>
@@ -369,7 +381,7 @@
   <dimension ref="A1:AMK5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,38 +392,56 @@
     <col min="4" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/LocalData/ChangeCalls.xlsx
+++ b/Assets/LocalData/ChangeCalls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Unity Projects\Interactive Stand\Assets\LocalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>21.07.2019-26.07.2019;28.07.2019</t>
-  </si>
-  <si>
-    <t>09:00-  10:00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>11:00-13:00</t>
   </si>
@@ -38,28 +32,13 @@
     <t>13:25-13:30</t>
   </si>
   <si>
-    <t>13:00-13:25</t>
-  </si>
-  <si>
-    <t>18:00-19:00</t>
-  </si>
-  <si>
-    <t>20:00-21:00</t>
-  </si>
-  <si>
-    <t>20.07.2019</t>
-  </si>
-  <si>
-    <t>25.07.2019</t>
-  </si>
-  <si>
-    <t>23.07.2019</t>
-  </si>
-  <si>
     <t>12:00-13:00</t>
   </si>
   <si>
-    <t>13:00-13:05</t>
+    <t>20.08.2019</t>
+  </si>
+  <si>
+    <t>25.08.2019</t>
   </si>
 </sst>
 </file>
@@ -378,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK5"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A10" sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,59 +368,32 @@
     <col min="1" max="1" width="11.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
